--- a/volteRoaming/docs/Monthly Roaming Reconciliation Mockup_SAP v APRM v DCH.xlsx
+++ b/volteRoaming/docs/Monthly Roaming Reconciliation Mockup_SAP v APRM v DCH.xlsx
@@ -4,31 +4,33 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="15120" windowHeight="7050" tabRatio="947" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="615" windowWidth="12795" windowHeight="4035" tabRatio="947" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="LTE_VoLTE Outbound-Incollect" sheetId="4" r:id="rId1"/>
-    <sheet name="S - CDMA Outbound-Incollect" sheetId="6" r:id="rId2"/>
-    <sheet name="A - CDMA Outbound-Incollect" sheetId="8" r:id="rId3"/>
-    <sheet name="GSM Outbound-Incollect" sheetId="10" r:id="rId4"/>
+    <sheet name="S - CDMA Outbound-Incollect" sheetId="6" r:id="rId1"/>
+    <sheet name="A - CDMA Outbound-Incollect" sheetId="8" r:id="rId2"/>
+    <sheet name="GSM Outbound-Incollect" sheetId="10" r:id="rId3"/>
+    <sheet name="LTE_VoLTE Outbound-Incollect" sheetId="4" r:id="rId4"/>
     <sheet name="LTE_VoLTE Inbound-Outcollect" sheetId="5" r:id="rId5"/>
-    <sheet name="S - CDMA Inbound-Outcollect" sheetId="7" r:id="rId6"/>
-    <sheet name="A - CDMA Inbound-Outcollect" sheetId="9" r:id="rId7"/>
-    <sheet name="Mock-Up SAP-Staging Table Info" sheetId="11" r:id="rId8"/>
-    <sheet name="Mock-Up DCH-Staging Table" sheetId="13" r:id="rId9"/>
-    <sheet name="Mock-Up APRM-Staging Table" sheetId="14" r:id="rId10"/>
-    <sheet name="Daily-DCH Data" sheetId="16" state="hidden" r:id="rId11"/>
+    <sheet name="LTE-VoLTE SubReport" sheetId="18" r:id="rId6"/>
+    <sheet name="S - CDMA Inbound-Outcollect" sheetId="7" r:id="rId7"/>
+    <sheet name="A - CDMA Inbound-Outcollect" sheetId="9" r:id="rId8"/>
+    <sheet name="Mock-Up SAP-Staging Table Info" sheetId="11" r:id="rId9"/>
+    <sheet name="Mock-Up DCH-Staging Table" sheetId="13" r:id="rId10"/>
+    <sheet name="Mock-Up APRM-Staging Table" sheetId="14" r:id="rId11"/>
+    <sheet name="Daily-DCH Data" sheetId="16" state="hidden" r:id="rId12"/>
+    <sheet name="Version" sheetId="17" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Mock-Up APRM-Staging Table'!$A$1:$J$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Mock-Up SAP-Staging Table Info'!$A$1:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Mock-Up APRM-Staging Table'!$A$1:$J$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Mock-Up SAP-Staging Table Info'!$A$1:$I$20</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="121">
   <si>
     <t>VoLTE</t>
   </si>
@@ -520,17 +522,88 @@
     <t>Derived 
 Y3 = Settlement ; Y4 = Accrual</t>
   </si>
+  <si>
+    <t>Version Control</t>
+  </si>
+  <si>
+    <t>Description of Revisions</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Draft </t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Joan Mulvany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP vs APRM = ok </t>
+  </si>
+  <si>
+    <t xml:space="preserve">APRM vs. DCH </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incollect </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outcollect </t>
+  </si>
+  <si>
+    <t>Roaming Type</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated per CR#XXX
+- Added LTE-VoLTE SubReport
+- Updated LTE_VoLTE Incollect &amp; Outcollect tabs </t>
+  </si>
+  <si>
+    <t>Details will be blank since we are only getting Totals for DCH and any exception will be in the SubReport
+(CR#XXX - Updated)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Variance Amount ($)
+SAP vs DCH</t>
+  </si>
+  <si>
+    <t>GL Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTE / VoLTE Inbound/Outbound Discrepancy Sub-Report </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,8 +738,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,8 +838,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -848,17 +983,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -934,13 +1058,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -993,14 +1206,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1017,22 +1229,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,13 +1259,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,22 +1281,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1094,30 +1306,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1126,10 +1338,10 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1144,21 +1356,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1167,7 +1379,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1181,41 +1393,106 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,16 +1504,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1245,6 +1522,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1255,9 +1547,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_example_v1" xfId="3"/>
     <cellStyle name="Normal_RTM_Template_2008_v5.0" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1276,6 +1569,75 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="333374"/>
+          <a:ext cx="2524125" cy="1133476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This sub-report will have the mismatch / rejects from SAP to DCH</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1505,7 +1867,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1572,7 +1934,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1941,1122 +2303,9 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G13" sqref="G13"/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6">
-        <v>42582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="109" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="110" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="28">
-        <v>1</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="45" t="e">
-        <f>C6-D6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" s="45" t="e">
-        <f t="shared" ref="G6:G17" si="0">C6-F6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="45">
-        <f>+H6-I6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="45">
-        <f t="shared" ref="L6:L17" si="1">H6-K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="28">
-        <v>2</v>
-      </c>
-      <c r="C7" s="58">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="58">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="58">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="45">
-        <f t="shared" ref="F7:F17" si="2">C7-D7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="45">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="45">
-        <f t="shared" ref="K7:K17" si="3">+H7-I7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="28">
-        <v>3</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="45" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" s="45" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="34">
-        <v>0</v>
-      </c>
-      <c r="D14" s="58">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="58">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="45">
-        <f t="shared" si="2"/>
-        <v>-1000</v>
-      </c>
-      <c r="G14" s="45">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="59">
-        <f t="shared" ref="C18:L18" si="4">SUM(C6:C17)</f>
-        <v>1000</v>
-      </c>
-      <c r="D18" s="60">
-        <f t="shared" si="4"/>
-        <v>2000</v>
-      </c>
-      <c r="E18" s="61">
-        <f t="shared" si="4"/>
-        <v>2000</v>
-      </c>
-      <c r="F18" s="46" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" s="47" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H18" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="75" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="52"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78">
-        <v>6008001</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H2" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I2" s="77">
-        <v>1</v>
-      </c>
-      <c r="J2" s="80">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78">
-        <v>5438001</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H3" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I3" s="77">
-        <v>1</v>
-      </c>
-      <c r="J3" s="80">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78">
-        <v>6008002</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H4" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I4" s="77">
-        <v>1</v>
-      </c>
-      <c r="J4" s="80">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78">
-        <v>5438002</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H5" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I5" s="77">
-        <v>1</v>
-      </c>
-      <c r="J5" s="80">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78">
-        <v>6002201</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H6" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I6" s="77">
-        <v>1</v>
-      </c>
-      <c r="J6" s="80">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78">
-        <v>6008001</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H7" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I7" s="77">
-        <v>1</v>
-      </c>
-      <c r="J7" s="80">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78">
-        <v>5430001</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H8" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I8" s="77">
-        <v>1</v>
-      </c>
-      <c r="J8" s="80">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78">
-        <v>5410101</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H9" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="80"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78">
-        <v>4080401</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H10" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="80"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78">
-        <v>6002201</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H11" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I11" s="77">
-        <v>1</v>
-      </c>
-      <c r="J11" s="80">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78">
-        <v>6008001</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H12" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I12" s="77">
-        <v>1</v>
-      </c>
-      <c r="J12" s="80">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78">
-        <v>5430001</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H13" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I13" s="77">
-        <v>1</v>
-      </c>
-      <c r="J13" s="80">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78">
-        <v>5410101</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H14" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="80"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78">
-        <v>4080401</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H15" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="80"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78">
-        <v>6002201</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H16" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I16" s="77">
-        <v>1</v>
-      </c>
-      <c r="J16" s="80">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78">
-        <v>6008001</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H17" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I17" s="77">
-        <v>1</v>
-      </c>
-      <c r="J17" s="80">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78">
-        <v>6002202</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="79">
-        <v>9999</v>
-      </c>
-      <c r="H18" s="79">
-        <v>9999</v>
-      </c>
-      <c r="I18" s="77"/>
-      <c r="J18" s="80"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:J18"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="86.42578125" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,286 +2335,286 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114" t="s">
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="116"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="143"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="144" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="145" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:12" s="67" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="66" t="s">
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
     </row>
     <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="45" t="e">
+      <c r="F6" s="44" t="e">
         <f>C6-D6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G6" s="45" t="e">
+      <c r="G6" s="44" t="e">
         <f>C6-E6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="45">
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="44">
         <f>+H6-I6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="44">
         <f t="shared" ref="L6:L17" si="0">H6-K6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="28">
+      <c r="A7" s="32"/>
+      <c r="B7" s="27">
         <v>2</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>100</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="40">
         <v>100</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>100</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <f t="shared" ref="F7:F18" si="1">C7-D7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <f t="shared" ref="G7:G18" si="2">C7-E7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="45">
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="44">
         <f t="shared" ref="K7:K17" si="3">+H7-I7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="28">
+      <c r="A8" s="32"/>
+      <c r="B8" s="27">
         <v>3</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="45">
+      <c r="C8" s="33"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="45">
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="45">
+      <c r="C9" s="33"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="45">
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="45">
+      <c r="C10" s="33"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="45">
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="45">
+      <c r="C11" s="33"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="45">
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="45">
+      <c r="A12" s="28"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="45">
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3374,31 +2623,31 @@
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="45" t="e">
+      <c r="F13" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G13" s="45" t="e">
+      <c r="G13" s="44" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="45">
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3407,31 +2656,31 @@
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="34">
-        <v>0</v>
-      </c>
-      <c r="D14" s="31">
+      <c r="C14" s="33">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
         <v>100</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>100</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <f t="shared" si="1"/>
         <v>-100</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="45">
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3440,25 +2689,25 @@
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="45">
+      <c r="C15" s="33"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="45">
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3467,25 +2716,25 @@
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="45">
+      <c r="C16" s="33"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="45">
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3494,25 +2743,25 @@
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="45">
+      <c r="C17" s="33"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="45">
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3522,43 +2771,43 @@
         <v>4</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <f t="shared" ref="C18:L18" si="4">SUM(C6:C17)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="42">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="62">
         <f t="shared" si="1"/>
         <v>-100</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="62">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3577,7 +2826,1463 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="74" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52">
+        <v>9999</v>
+      </c>
+      <c r="H2" s="51">
+        <v>1</v>
+      </c>
+      <c r="I2" s="74">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52">
+        <v>9999</v>
+      </c>
+      <c r="H3" s="51">
+        <v>1</v>
+      </c>
+      <c r="I3" s="74">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52">
+        <v>9999</v>
+      </c>
+      <c r="H4" s="51">
+        <v>1</v>
+      </c>
+      <c r="I4" s="74">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52">
+        <v>9999</v>
+      </c>
+      <c r="H5" s="51">
+        <v>1</v>
+      </c>
+      <c r="I5" s="74">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52">
+        <v>9999</v>
+      </c>
+      <c r="H6" s="51">
+        <v>1</v>
+      </c>
+      <c r="I6" s="74">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52">
+        <v>9999</v>
+      </c>
+      <c r="H7" s="51">
+        <v>1</v>
+      </c>
+      <c r="I7" s="74">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52">
+        <v>9999</v>
+      </c>
+      <c r="H8" s="51">
+        <v>1</v>
+      </c>
+      <c r="I8" s="74">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52">
+        <v>9999</v>
+      </c>
+      <c r="H12" s="51">
+        <v>1</v>
+      </c>
+      <c r="I12" s="74">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52">
+        <v>9999</v>
+      </c>
+      <c r="H13" s="51">
+        <v>1</v>
+      </c>
+      <c r="I13" s="74">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52">
+        <v>9999</v>
+      </c>
+      <c r="H14" s="51">
+        <v>1</v>
+      </c>
+      <c r="I14" s="74">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="52">
+        <v>9999</v>
+      </c>
+      <c r="G18" s="52">
+        <v>9999</v>
+      </c>
+      <c r="H18" s="51">
+        <v>1</v>
+      </c>
+      <c r="I18" s="74">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="52">
+        <v>9999</v>
+      </c>
+      <c r="G19" s="52">
+        <v>9999</v>
+      </c>
+      <c r="H19" s="51">
+        <v>1</v>
+      </c>
+      <c r="I19" s="74">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="52">
+        <v>9999</v>
+      </c>
+      <c r="G20" s="52">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77">
+        <v>6008001</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H2" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I2" s="76">
+        <v>1</v>
+      </c>
+      <c r="J2" s="79">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77">
+        <v>5438001</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H3" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I3" s="76">
+        <v>1</v>
+      </c>
+      <c r="J3" s="79">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77">
+        <v>6008002</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H4" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I4" s="76">
+        <v>1</v>
+      </c>
+      <c r="J4" s="79">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77">
+        <v>5438002</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H5" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I5" s="76">
+        <v>1</v>
+      </c>
+      <c r="J5" s="79">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77">
+        <v>6002201</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H6" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I6" s="76">
+        <v>1</v>
+      </c>
+      <c r="J6" s="79">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77">
+        <v>6008001</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H7" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I7" s="76">
+        <v>1</v>
+      </c>
+      <c r="J7" s="79">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77">
+        <v>5430001</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H8" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I8" s="76">
+        <v>1</v>
+      </c>
+      <c r="J8" s="79">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77">
+        <v>5410101</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H9" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="79"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77">
+        <v>4080401</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H10" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="79"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77">
+        <v>6002201</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H11" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I11" s="76">
+        <v>1</v>
+      </c>
+      <c r="J11" s="79">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77">
+        <v>6008001</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H12" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I12" s="76">
+        <v>1</v>
+      </c>
+      <c r="J12" s="79">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77">
+        <v>5430001</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H13" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I13" s="76">
+        <v>1</v>
+      </c>
+      <c r="J13" s="79">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77">
+        <v>5410101</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H14" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I14" s="76"/>
+      <c r="J14" s="79"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77">
+        <v>4080401</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H15" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I15" s="76"/>
+      <c r="J15" s="79"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="76"/>
+      <c r="C16" s="77">
+        <v>6002201</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H16" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I16" s="76">
+        <v>1</v>
+      </c>
+      <c r="J16" s="79">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77">
+        <v>6008001</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H17" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I17" s="76">
+        <v>1</v>
+      </c>
+      <c r="J17" s="79">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77">
+        <v>6002202</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="78">
+        <v>9999</v>
+      </c>
+      <c r="H18" s="78">
+        <v>9999</v>
+      </c>
+      <c r="I18" s="76"/>
+      <c r="J18" s="79"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="86.42578125" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="51.140625" customWidth="1"/>
+    <col min="259" max="259" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="51.140625" customWidth="1"/>
+    <col min="515" max="515" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="51.140625" customWidth="1"/>
+    <col min="771" max="771" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="51.140625" customWidth="1"/>
+    <col min="1027" max="1027" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="51.140625" customWidth="1"/>
+    <col min="1283" max="1283" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="51.140625" customWidth="1"/>
+    <col min="1539" max="1539" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="51.140625" customWidth="1"/>
+    <col min="1795" max="1795" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="51.140625" customWidth="1"/>
+    <col min="2051" max="2051" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="51.140625" customWidth="1"/>
+    <col min="2307" max="2307" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="51.140625" customWidth="1"/>
+    <col min="2563" max="2563" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="51.140625" customWidth="1"/>
+    <col min="2819" max="2819" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="51.140625" customWidth="1"/>
+    <col min="3075" max="3075" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="51.140625" customWidth="1"/>
+    <col min="3331" max="3331" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="51.140625" customWidth="1"/>
+    <col min="3587" max="3587" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="51.140625" customWidth="1"/>
+    <col min="3843" max="3843" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="51.140625" customWidth="1"/>
+    <col min="4099" max="4099" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="51.140625" customWidth="1"/>
+    <col min="4355" max="4355" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="51.140625" customWidth="1"/>
+    <col min="4611" max="4611" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="51.140625" customWidth="1"/>
+    <col min="4867" max="4867" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="51.140625" customWidth="1"/>
+    <col min="5123" max="5123" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="51.140625" customWidth="1"/>
+    <col min="5379" max="5379" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="51.140625" customWidth="1"/>
+    <col min="5635" max="5635" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="51.140625" customWidth="1"/>
+    <col min="5891" max="5891" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="51.140625" customWidth="1"/>
+    <col min="6147" max="6147" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="51.140625" customWidth="1"/>
+    <col min="6403" max="6403" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="51.140625" customWidth="1"/>
+    <col min="6659" max="6659" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="51.140625" customWidth="1"/>
+    <col min="6915" max="6915" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="51.140625" customWidth="1"/>
+    <col min="7171" max="7171" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="51.140625" customWidth="1"/>
+    <col min="7427" max="7427" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="51.140625" customWidth="1"/>
+    <col min="7683" max="7683" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="51.140625" customWidth="1"/>
+    <col min="7939" max="7939" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="51.140625" customWidth="1"/>
+    <col min="8195" max="8195" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="51.140625" customWidth="1"/>
+    <col min="8451" max="8451" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="51.140625" customWidth="1"/>
+    <col min="8707" max="8707" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="51.140625" customWidth="1"/>
+    <col min="8963" max="8963" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="51.140625" customWidth="1"/>
+    <col min="9219" max="9219" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="51.140625" customWidth="1"/>
+    <col min="9475" max="9475" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="51.140625" customWidth="1"/>
+    <col min="9731" max="9731" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="51.140625" customWidth="1"/>
+    <col min="9987" max="9987" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="51.140625" customWidth="1"/>
+    <col min="10243" max="10243" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="51.140625" customWidth="1"/>
+    <col min="10499" max="10499" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="51.140625" customWidth="1"/>
+    <col min="10755" max="10755" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="51.140625" customWidth="1"/>
+    <col min="11011" max="11011" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="51.140625" customWidth="1"/>
+    <col min="11267" max="11267" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="51.140625" customWidth="1"/>
+    <col min="11523" max="11523" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="51.140625" customWidth="1"/>
+    <col min="11779" max="11779" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="51.140625" customWidth="1"/>
+    <col min="12035" max="12035" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="51.140625" customWidth="1"/>
+    <col min="12291" max="12291" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="51.140625" customWidth="1"/>
+    <col min="12547" max="12547" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="51.140625" customWidth="1"/>
+    <col min="12803" max="12803" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="51.140625" customWidth="1"/>
+    <col min="13059" max="13059" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="51.140625" customWidth="1"/>
+    <col min="13315" max="13315" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="51.140625" customWidth="1"/>
+    <col min="13571" max="13571" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="51.140625" customWidth="1"/>
+    <col min="13827" max="13827" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="51.140625" customWidth="1"/>
+    <col min="14083" max="14083" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="51.140625" customWidth="1"/>
+    <col min="14339" max="14339" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="51.140625" customWidth="1"/>
+    <col min="14595" max="14595" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="51.140625" customWidth="1"/>
+    <col min="14851" max="14851" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="51.140625" customWidth="1"/>
+    <col min="15107" max="15107" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="51.140625" customWidth="1"/>
+    <col min="15363" max="15363" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="51.140625" customWidth="1"/>
+    <col min="15619" max="15619" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="51.140625" customWidth="1"/>
+    <col min="15875" max="15875" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="51.140625" customWidth="1"/>
+    <col min="16131" max="16131" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="113">
+        <v>42831</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="111"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="111"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="111"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="111"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="111"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="111"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="111"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="114"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -3615,286 +4320,286 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="119" t="s">
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="121"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="149"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="145" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="72" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="67" t="s">
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
     </row>
     <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="45" t="e">
+      <c r="F6" s="44" t="e">
         <f>C6-D6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G6" s="45" t="e">
+      <c r="G6" s="44" t="e">
         <f t="shared" ref="G6:G17" si="0">C6-F6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="45">
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="44">
         <f>+H6-I6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="44">
         <f t="shared" ref="L6:L17" si="1">H6-K6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="28">
+      <c r="A7" s="32"/>
+      <c r="B7" s="27">
         <v>2</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>100</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="40">
         <v>100</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>100</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <f t="shared" ref="F7:F17" si="2">C7-D7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="45">
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="44">
         <f t="shared" ref="K7:K17" si="3">+H7-I7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="28">
+      <c r="A8" s="32"/>
+      <c r="B8" s="27">
         <v>3</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="45">
+      <c r="C8" s="33"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="45">
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="45">
+      <c r="C9" s="33"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="45">
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="45">
+      <c r="C10" s="33"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="45">
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="45">
+      <c r="C11" s="33"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="45">
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="45">
+      <c r="A12" s="28"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="45">
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3903,31 +4608,31 @@
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="45" t="e">
+      <c r="F13" s="44" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G13" s="45" t="e">
+      <c r="G13" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="45">
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3936,31 +4641,31 @@
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="34">
-        <v>0</v>
-      </c>
-      <c r="D14" s="31">
+      <c r="C14" s="33">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
         <v>100</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>100</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="45">
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3969,25 +4674,25 @@
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="45">
+      <c r="C15" s="33"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="45">
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3996,25 +4701,25 @@
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="45">
+      <c r="C16" s="33"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="45">
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4023,25 +4728,25 @@
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="45">
+      <c r="C17" s="33"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="45">
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4051,43 +4756,43 @@
         <v>4</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <f t="shared" ref="C18:L18" si="4">SUM(C6:C17)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="42">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="F18" s="46" t="e">
+      <c r="F18" s="45" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G18" s="47" t="e">
+      <c r="G18" s="46" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4106,12 +4811,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4142,212 +4847,212 @@
         <v>42582</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-    </row>
-    <row r="4" spans="1:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="86" t="s">
+    <row r="3" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+    </row>
+    <row r="4" spans="1:20" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="85" t="s">
+      <c r="E4" s="155"/>
+      <c r="F4" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="126" t="s">
+      <c r="J4" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="127"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="155"/>
+      <c r="L4" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="125" t="s">
+      <c r="N4" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="126" t="s">
+      <c r="P4" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="85" t="s">
+      <c r="Q4" s="155"/>
+      <c r="R4" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="110" t="s">
+      <c r="S4" s="144" t="s">
         <v>82</v>
       </c>
-      <c r="T4" s="125" t="s">
+      <c r="T4" s="153" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+    <row r="5" spans="1:20" s="67" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="76" t="s">
+      <c r="G5" s="144"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="118"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="76" t="s">
+      <c r="M5" s="146"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="P5" s="87" t="s">
+      <c r="P5" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="Q5" s="82" t="s">
+      <c r="Q5" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="R5" s="87" t="s">
+      <c r="R5" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="S5" s="110"/>
-      <c r="T5" s="125"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="153"/>
     </row>
     <row r="6" spans="1:20" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="82"/>
+      <c r="E6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="45" t="e">
+      <c r="F6" s="39"/>
+      <c r="G6" s="44" t="e">
         <f t="shared" ref="G6:G18" si="0">C6-E6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <f>+D6-F6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="45">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="44">
         <f>+I6-K6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="44">
         <f>+J6-L6</f>
         <v>0</v>
       </c>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="90">
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="89">
         <f>+O6-Q6</f>
         <v>0</v>
       </c>
-      <c r="T6" s="45">
+      <c r="T6" s="44">
         <f>+P6-R6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="28">
+      <c r="A7" s="32"/>
+      <c r="B7" s="27">
         <v>2</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>100</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="41">
+      <c r="D7" s="82"/>
+      <c r="E7" s="40">
         <v>100</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="45">
+      <c r="F7" s="40"/>
+      <c r="G7" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <f t="shared" ref="H7:H18" si="1">+D7-F7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="45">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="44">
         <f t="shared" ref="M7:M18" si="2">+I7-K7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="44">
         <f t="shared" ref="N7:N18" si="3">+J7-L7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="45">
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="44">
         <f t="shared" ref="S7:S18" si="4">+O7-Q7</f>
         <v>0</v>
       </c>
@@ -4357,39 +5062,39 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="28">
+      <c r="A8" s="32"/>
+      <c r="B8" s="27">
         <v>3</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="45">
+      <c r="C8" s="33"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="45">
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="45">
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4399,39 +5104,39 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="45">
+      <c r="C9" s="33"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="45">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="45">
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4441,39 +5146,39 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="45">
+      <c r="C10" s="33"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="45">
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="45">
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4483,39 +5188,39 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="45">
+      <c r="C11" s="33"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="45">
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="45">
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4525,36 +5230,36 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="45">
+      <c r="A12" s="28"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="45">
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="45">
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4567,39 +5272,39 @@
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="83"/>
+      <c r="E13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="45" t="e">
+      <c r="F13" s="41"/>
+      <c r="G13" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="45">
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="45">
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4612,37 +5317,37 @@
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="38">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="37">
         <v>100</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="45">
+      <c r="F14" s="37"/>
+      <c r="G14" s="44">
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="45">
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="45">
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4655,35 +5360,35 @@
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="45">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="45">
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="45">
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4696,35 +5401,35 @@
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="45">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="45">
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="45">
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4737,35 +5442,35 @@
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="45">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="45">
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="45">
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4779,48 +5484,48 @@
         <v>4</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="44">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="43">
         <f t="shared" ref="E18:K18" si="6">SUM(E6:E17)</f>
         <v>200</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="63">
+      <c r="F18" s="43"/>
+      <c r="G18" s="62">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46">
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L18" s="46"/>
-      <c r="M18" s="63">
+      <c r="L18" s="45"/>
+      <c r="M18" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18" s="63">
+      <c r="N18" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47">
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46">
         <f t="shared" ref="Q18" si="7">SUM(Q6:Q17)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="47"/>
-      <c r="S18" s="63">
+      <c r="R18" s="46"/>
+      <c r="S18" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T18" s="88">
+      <c r="T18" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4845,16 +5550,493 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G13" sqref="G13"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6">
+        <v>42582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="160" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="144" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="144" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="144" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="144" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+    </row>
+    <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="27">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="44" t="e">
+        <f t="shared" ref="F6:F18" si="0">C6-D6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="44">
+        <f>+H6-I6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="156" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="27">
+        <v>2</v>
+      </c>
+      <c r="C7" s="57">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="57">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="157"/>
+      <c r="F7" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="157"/>
+      <c r="H7" s="57">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="57">
+        <v>1400</v>
+      </c>
+      <c r="J7" s="157"/>
+      <c r="K7" s="44">
+        <f t="shared" ref="K7:K17" si="1">+H7-I7</f>
+        <v>100</v>
+      </c>
+      <c r="L7" s="157"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="27">
+        <v>3</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="157"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="157"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="157"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="157"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="157"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="157"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="157"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="157"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="157"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="157"/>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="157"/>
+      <c r="F13" s="44" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="157"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="157"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0</v>
+      </c>
+      <c r="D14" s="57">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="157"/>
+      <c r="F14" s="44">
+        <f t="shared" si="0"/>
+        <v>-1000</v>
+      </c>
+      <c r="G14" s="157"/>
+      <c r="H14" s="33">
+        <v>0</v>
+      </c>
+      <c r="I14" s="130">
+        <v>100</v>
+      </c>
+      <c r="J14" s="157"/>
+      <c r="K14" s="44">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="L14" s="157"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="157"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="157"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="157"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="157"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="158"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="158"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="58">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="59">
+        <f t="shared" ref="D18:K18" si="2">SUM(D6:D17)</f>
+        <v>2000</v>
+      </c>
+      <c r="E18" s="60">
+        <v>2500</v>
+      </c>
+      <c r="F18" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="58">
+        <f>C18-E18</f>
+        <v>-500</v>
+      </c>
+      <c r="H18" s="58">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="I18" s="58">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="J18" s="58">
+        <v>1400</v>
+      </c>
+      <c r="K18" s="58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="58">
+        <f>H18-J18</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E6:E17"/>
+    <mergeCell ref="J6:J17"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="G6:G17"/>
+    <mergeCell ref="L6:L17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G13" sqref="G13"/>
       <selection pane="topRight" activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4875,37 +6057,37 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="105">
+      <c r="B2" s="104">
         <v>42582</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="130"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="163"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="21"/>
@@ -4913,7 +6095,7 @@
       <c r="H4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -4923,7 +6105,7 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="72" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4932,7 +6114,7 @@
       <c r="C5" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -4947,7 +6129,7 @@
       <c r="H5" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>89</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -4960,410 +6142,335 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="45" t="e">
-        <f>C6-D6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" s="45" t="e">
-        <f t="shared" ref="G6:G17" si="0">C6-F6</f>
-        <v>#VALUE!</v>
+      <c r="E6" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="156" t="s">
+        <v>116</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="156" t="s">
+        <v>116</v>
+      </c>
       <c r="K6" s="20">
         <f>+H6-I6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="12">
-        <f>H6-J6</f>
-        <v>0</v>
+      <c r="L6" s="156" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="28">
+      <c r="A7" s="32"/>
+      <c r="B7" s="27">
         <v>2</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>100</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="40">
         <v>100</v>
       </c>
-      <c r="E7" s="38">
-        <v>100</v>
-      </c>
-      <c r="F7" s="45">
-        <f t="shared" ref="F7:F17" si="1">C7-D7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="45">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="E7" s="157"/>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7:F17" si="0">C7-D7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="157"/>
       <c r="H7" s="2"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="157"/>
       <c r="K7" s="20">
-        <f t="shared" ref="K7:K17" si="2">+H7-I7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="24">
-        <f t="shared" ref="L7:L17" si="3">H7-J7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="28">
+        <f t="shared" ref="K7:K17" si="1">+H7-I7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="157"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="27">
         <v>3</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="45">
+      <c r="C8" s="33"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G8" s="157"/>
       <c r="H8" s="2"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="157"/>
       <c r="K8" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="157"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="45">
+      <c r="C9" s="33"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G9" s="157"/>
       <c r="H9" s="2"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="157"/>
       <c r="K9" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="157"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="45">
+      <c r="C10" s="33"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G10" s="157"/>
       <c r="H10" s="2"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="157"/>
       <c r="K10" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="157"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="45">
+      <c r="C11" s="33"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G11" s="157"/>
       <c r="H11" s="2"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="157"/>
       <c r="K11" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="157"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="45">
+      <c r="A12" s="28"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G12" s="157"/>
       <c r="H12" s="2"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="157"/>
       <c r="K12" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="157"/>
     </row>
     <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="45" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" s="45" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="E13" s="157"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="157"/>
       <c r="H13" s="2"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="157"/>
       <c r="K13" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="157"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="34">
-        <v>0</v>
-      </c>
-      <c r="D14" s="31">
+      <c r="C14" s="33">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
         <v>100</v>
       </c>
-      <c r="E14" s="38">
-        <v>100</v>
-      </c>
-      <c r="F14" s="45">
-        <f t="shared" si="1"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="44">
+        <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="G14" s="45">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="G14" s="157"/>
       <c r="H14" s="2"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="157"/>
       <c r="K14" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="157"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="45">
+      <c r="C15" s="33"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G15" s="157"/>
       <c r="H15" s="2"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="157"/>
       <c r="K15" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="157"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="45">
+      <c r="C16" s="33"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G16" s="157"/>
       <c r="H16" s="2"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="11"/>
+      <c r="J16" s="157"/>
       <c r="K16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="157"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="45">
+      <c r="C17" s="33"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G17" s="158"/>
       <c r="H17" s="2"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="11"/>
+      <c r="J17" s="158"/>
       <c r="K17" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="158"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="36">
-        <f t="shared" ref="C18:G18" si="4">SUM(C6:C17)</f>
+      <c r="C18" s="58">
+        <f t="shared" ref="C18:F18" si="2">SUM(C6:C17)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="43">
-        <f t="shared" si="4"/>
+      <c r="D18" s="59">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E18" s="44">
-        <f t="shared" si="4"/>
+      <c r="E18" s="60">
         <v>200</v>
       </c>
-      <c r="F18" s="46" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" s="47" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H18" s="47">
-        <f t="shared" ref="H18" si="5">SUM(H6:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="47">
-        <f t="shared" ref="I18" si="6">SUM(I6:I17)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="47">
-        <f t="shared" ref="J18" si="7">SUM(J6:J17)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="47">
-        <f t="shared" ref="K18" si="8">SUM(K6:K17)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="47">
-        <f t="shared" ref="L18" si="9">SUM(L6:L17)</f>
+      <c r="F18" s="119">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="G18" s="119">
+        <f>C18-E18</f>
+        <v>-100</v>
+      </c>
+      <c r="H18" s="119">
+        <f t="shared" ref="H18" si="3">SUM(H6:H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="119">
+        <f t="shared" ref="I18" si="4">SUM(I6:I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="119">
+        <f t="shared" ref="J18" si="5">SUM(J6:J17)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="119">
+        <f t="shared" ref="K18" si="6">SUM(K6:K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="119">
+        <f t="shared" ref="L18" si="7">SUM(L6:L17)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:L3"/>
+    <mergeCell ref="E6:E17"/>
+    <mergeCell ref="J6:J17"/>
+    <mergeCell ref="G6:G17"/>
+    <mergeCell ref="L6:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5371,6 +6478,186 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="19" style="120" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="125" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="120"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="132" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="132"/>
+    </row>
+    <row r="2" spans="1:5" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135">
+        <v>42582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="133" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+    </row>
+    <row r="4" spans="1:5" s="131" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="136" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="136" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="137" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="122">
+        <v>1111</v>
+      </c>
+      <c r="B5" s="122">
+        <v>6008001</v>
+      </c>
+      <c r="C5" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="122">
+        <v>2222</v>
+      </c>
+      <c r="B6" s="122">
+        <v>6008001</v>
+      </c>
+      <c r="C6" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="123">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="122">
+        <v>9999</v>
+      </c>
+      <c r="B7" s="122">
+        <v>6008001</v>
+      </c>
+      <c r="C7" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="122">
+        <v>9999</v>
+      </c>
+      <c r="B8" s="122">
+        <v>6008001</v>
+      </c>
+      <c r="C8" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="123">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="122">
+        <v>9999</v>
+      </c>
+      <c r="B9" s="122">
+        <v>5438002</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="122">
+        <v>9999</v>
+      </c>
+      <c r="B10" s="122">
+        <v>5438001</v>
+      </c>
+      <c r="C10" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="123"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="124">
+        <f>SUM(E5:E9)</f>
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
@@ -5407,62 +6694,62 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="128" t="s">
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="129"/>
-      <c r="T3" s="130"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="128" t="s">
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="128" t="s">
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="128" t="s">
+      <c r="N4" s="162"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="129"/>
-      <c r="T4" s="130"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="163"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>73</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -5473,7 +6760,7 @@
       <c r="H5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>73</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -5484,7 +6771,7 @@
       <c r="M5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="24" t="s">
         <v>73</v>
       </c>
       <c r="O5" s="9" t="s">
@@ -5501,7 +6788,7 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="72" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -5561,26 +6848,26 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>1</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="45" t="e">
+      <c r="F7" s="44" t="e">
         <f>C7-E7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="55" t="e">
+      <c r="G7" s="54" t="e">
         <f>C7-D7</f>
         <v>#VALUE!</v>
       </c>
@@ -5608,24 +6895,24 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="28">
+      <c r="A8" s="32"/>
+      <c r="B8" s="27">
         <v>2</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <v>100</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="40">
         <v>100</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>100</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <f t="shared" ref="F8:F18" si="3">C8-E8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="54">
         <f t="shared" ref="G8:G18" si="4">C8-D8</f>
         <v>0</v>
       </c>
@@ -5653,18 +6940,18 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="28">
+      <c r="A9" s="32"/>
+      <c r="B9" s="27">
         <v>3</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="45">
+      <c r="C9" s="33"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5692,18 +6979,18 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="45">
+      <c r="C10" s="33"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5731,18 +7018,18 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="45">
+      <c r="C11" s="33"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5770,18 +7057,18 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="45">
+      <c r="C12" s="33"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5809,15 +7096,15 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="45">
+      <c r="A13" s="28"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5848,20 +7135,20 @@
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="45" t="e">
+      <c r="F14" s="44" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G14" s="55" t="e">
+      <c r="G14" s="54" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
@@ -5892,20 +7179,20 @@
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="34">
-        <v>0</v>
-      </c>
-      <c r="D15" s="31">
+      <c r="C15" s="33">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
         <v>100</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <v>100</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="44">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="54">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
@@ -5936,14 +7223,14 @@
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="45">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="54">
         <f>C16-D16</f>
         <v>0</v>
       </c>
@@ -5974,14 +7261,14 @@
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="45">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6012,14 +7299,14 @@
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="45">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6051,57 +7338,57 @@
         <v>4</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <f t="shared" ref="C19:F19" si="5">SUM(C7:C18)</f>
         <v>100</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="44">
+      <c r="D19" s="35"/>
+      <c r="E19" s="43">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="F19" s="47" t="e">
+      <c r="F19" s="46" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47">
+      <c r="G19" s="46"/>
+      <c r="H19" s="46">
         <f t="shared" ref="H19" si="6">SUM(H7:H18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47">
+      <c r="I19" s="46"/>
+      <c r="J19" s="46">
         <f t="shared" ref="J19" si="7">SUM(J7:J18)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="46">
         <f t="shared" ref="K19" si="8">SUM(K7:K18)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47">
+      <c r="L19" s="46"/>
+      <c r="M19" s="46">
         <f t="shared" ref="M19" si="9">SUM(M7:M18)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47">
+      <c r="N19" s="46"/>
+      <c r="O19" s="46">
         <f t="shared" ref="O19" si="10">SUM(O7:O18)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="46">
         <f t="shared" ref="P19" si="11">SUM(P7:P18)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47">
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46">
         <f t="shared" ref="R19" si="12">SUM(R7:R18)</f>
         <v>0</v>
       </c>
-      <c r="S19" s="47">
+      <c r="S19" s="46">
         <f t="shared" ref="S19" si="13">SUM(S7:S18)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="47">
+      <c r="T19" s="46">
         <f t="shared" ref="T19" si="14">SUM(T7:T18)</f>
         <v>0</v>
       </c>
@@ -6120,7 +7407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
@@ -6159,62 +7446,62 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="128" t="s">
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="129"/>
-      <c r="T3" s="130"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="128" t="s">
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="128" t="s">
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="128" t="s">
+      <c r="N4" s="162"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="129"/>
-      <c r="T4" s="130"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="163"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>73</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -6225,7 +7512,7 @@
       <c r="H5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>73</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -6253,7 +7540,7 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="72" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -6315,34 +7602,34 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>1</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="45" t="e">
+      <c r="F7" s="44" t="e">
         <f>C7-E7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="45"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="34"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="11"/>
       <c r="K7" s="13">
         <f t="shared" ref="K7:K18" si="0">H7-J7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="55"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -6359,32 +7646,32 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="28">
+      <c r="A8" s="32"/>
+      <c r="B8" s="27">
         <v>2</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <v>100</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="40">
         <v>100</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>100</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <f t="shared" ref="F8:F18" si="3">C8-E8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="45"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="34"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="11"/>
       <c r="K8" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="55"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="2"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -6401,26 +7688,26 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="28">
+      <c r="A9" s="32"/>
+      <c r="B9" s="27">
         <v>3</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="45">
+      <c r="C9" s="33"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G9" s="45"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="34"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="11"/>
       <c r="K9" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="55"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="2"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -6437,26 +7724,26 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="45">
+      <c r="C10" s="33"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="34"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="11"/>
       <c r="K10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="55"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="2"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -6473,26 +7760,26 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="45">
+      <c r="C11" s="33"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="34"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="11"/>
       <c r="K11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="55"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="2"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -6509,26 +7796,26 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="45">
+      <c r="C12" s="33"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="34"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="11"/>
       <c r="K12" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="55"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="2"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -6545,23 +7832,23 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="45">
+      <c r="A13" s="28"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G13" s="45"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="34"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="11"/>
       <c r="K13" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="55"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="2"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -6581,28 +7868,28 @@
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="45" t="e">
+      <c r="F14" s="44" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="35"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="11"/>
       <c r="K14" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="55"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="2"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -6622,28 +7909,28 @@
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="34">
-        <v>0</v>
-      </c>
-      <c r="D15" s="31">
+      <c r="C15" s="33">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
         <v>100</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <v>100</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="44">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="G15" s="45"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="34"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="11"/>
       <c r="K15" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="55"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="2"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -6664,22 +7951,22 @@
         <v>37</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="45">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="34"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="11"/>
       <c r="K16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="55"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="2"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -6699,22 +7986,22 @@
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="45">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G17" s="45"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="34"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="11"/>
       <c r="K17" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="55"/>
+      <c r="L17" s="54"/>
       <c r="M17" s="2"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -6734,22 +8021,22 @@
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="45">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G18" s="45"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="34"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="11"/>
       <c r="K18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="55"/>
+      <c r="L18" s="54"/>
       <c r="M18" s="2"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -6770,57 +8057,57 @@
         <v>4</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <f t="shared" ref="C19:T19" si="4">SUM(C7:C18)</f>
         <v>100</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="44">
+      <c r="D19" s="35"/>
+      <c r="E19" s="43">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="F19" s="47" t="e">
+      <c r="F19" s="46" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47">
+      <c r="G19" s="46"/>
+      <c r="H19" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="47">
+      <c r="I19" s="35"/>
+      <c r="J19" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47">
+      <c r="L19" s="46"/>
+      <c r="M19" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47">
+      <c r="N19" s="46"/>
+      <c r="O19" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47">
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S19" s="47">
+      <c r="S19" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T19" s="47">
+      <c r="T19" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6839,598 +8126,598 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="98" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="98" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="98" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="98" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="52" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="75" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="14.42578125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="97" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="97" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="97" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="93">
         <v>6008001</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="95">
+      <c r="G2" s="94">
         <v>9999</v>
       </c>
-      <c r="H2" s="93">
+      <c r="H2" s="92">
         <v>1</v>
       </c>
-      <c r="I2" s="96">
+      <c r="I2" s="95">
         <v>42644</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="93">
         <v>6008002</v>
       </c>
-      <c r="D3" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="100" t="s">
+      <c r="D3" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="95">
+      <c r="G3" s="94">
         <v>9999</v>
       </c>
-      <c r="H3" s="93">
+      <c r="H3" s="92">
         <v>1</v>
       </c>
-      <c r="I3" s="96">
+      <c r="I3" s="95">
         <v>42644</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="93">
         <v>6002201</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="95">
+      <c r="G4" s="94">
         <v>9999</v>
       </c>
-      <c r="H4" s="93">
+      <c r="H4" s="92">
         <v>1</v>
       </c>
-      <c r="I4" s="96">
+      <c r="I4" s="95">
         <v>42644</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="93">
         <v>6008001</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="95">
+      <c r="G5" s="94">
         <v>9999</v>
       </c>
-      <c r="H5" s="93">
+      <c r="H5" s="92">
         <v>1</v>
       </c>
-      <c r="I5" s="96">
+      <c r="I5" s="95">
         <v>42644</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="93">
         <v>6002201</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="95">
+      <c r="G6" s="94">
         <v>9999</v>
       </c>
-      <c r="H6" s="93">
+      <c r="H6" s="92">
         <v>1</v>
       </c>
-      <c r="I6" s="96">
+      <c r="I6" s="95">
         <v>42644</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="93">
         <v>6008001</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="94">
         <v>9999</v>
       </c>
-      <c r="H7" s="93">
+      <c r="H7" s="92">
         <v>1</v>
       </c>
-      <c r="I7" s="96">
+      <c r="I7" s="95">
         <v>42644</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="93">
         <v>5430001</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="95">
+      <c r="G8" s="94">
         <v>9999</v>
       </c>
-      <c r="H8" s="93">
+      <c r="H8" s="92">
         <v>1</v>
       </c>
-      <c r="I8" s="96">
+      <c r="I8" s="95">
         <v>42644</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="93">
         <v>5438001</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="95">
+      <c r="G9" s="94">
         <v>9999</v>
       </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="96"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="95"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="93">
         <v>5410101</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="95">
+      <c r="G10" s="94">
         <v>9999</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="96"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="95"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="94">
+      <c r="C11" s="93">
         <v>4080401</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="95">
+      <c r="G11" s="94">
         <v>9999</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="96"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="95"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="94">
+      <c r="C12" s="93">
         <v>6002201</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="100" t="s">
+      <c r="F12" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="94">
         <v>9999</v>
       </c>
-      <c r="H12" s="93">
+      <c r="H12" s="92">
         <v>1</v>
       </c>
-      <c r="I12" s="96">
+      <c r="I12" s="95">
         <v>42644</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="94">
+      <c r="C13" s="93">
         <v>6008001</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="95">
+      <c r="G13" s="94">
         <v>9999</v>
       </c>
-      <c r="H13" s="93">
+      <c r="H13" s="92">
         <v>1</v>
       </c>
-      <c r="I13" s="96">
+      <c r="I13" s="95">
         <v>42644</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="94">
+      <c r="C14" s="93">
         <v>5430001</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="95">
+      <c r="G14" s="94">
         <v>9999</v>
       </c>
-      <c r="H14" s="93">
+      <c r="H14" s="92">
         <v>1</v>
       </c>
-      <c r="I14" s="96">
+      <c r="I14" s="95">
         <v>42644</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="93">
         <v>5438001</v>
       </c>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="95">
+      <c r="G15" s="94">
         <v>9999</v>
       </c>
-      <c r="H15" s="93"/>
-      <c r="I15" s="96"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="94">
+      <c r="C16" s="93">
         <v>5410101</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="100" t="s">
+      <c r="F16" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="95">
+      <c r="G16" s="94">
         <v>9999</v>
       </c>
-      <c r="H16" s="93"/>
-      <c r="I16" s="96"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="95"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="94">
+      <c r="C17" s="93">
         <v>4080401</v>
       </c>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="100" t="s">
+      <c r="F17" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G17" s="94">
         <v>9999</v>
       </c>
-      <c r="H17" s="93"/>
-      <c r="I17" s="96"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="94">
+      <c r="C18" s="93">
         <v>6002202</v>
       </c>
-      <c r="D18" s="100" t="s">
+      <c r="D18" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="100" t="s">
+      <c r="E18" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="95">
+      <c r="G18" s="94">
         <v>9999</v>
       </c>
-      <c r="H18" s="93"/>
-      <c r="I18" s="96"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="95"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="94">
+      <c r="C19" s="93">
         <v>5438001</v>
       </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="100" t="s">
+      <c r="F19" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="95">
+      <c r="G19" s="94">
         <v>9999</v>
       </c>
-      <c r="H19" s="93">
+      <c r="H19" s="92">
         <v>1</v>
       </c>
-      <c r="I19" s="96">
+      <c r="I19" s="95">
         <v>42644</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="94">
+      <c r="C20" s="93">
         <v>5438002</v>
       </c>
-      <c r="D20" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="100" t="s">
+      <c r="D20" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="100" t="s">
+      <c r="F20" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="95">
+      <c r="G20" s="94">
         <v>9999</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="92">
         <v>1</v>
       </c>
-      <c r="I20" s="96">
+      <c r="I20" s="95">
         <v>42644</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103" t="s">
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="103" t="s">
+      <c r="E22" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="103" t="s">
+      <c r="F22" s="102" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D25" s="99"/>
+      <c r="D25" s="98"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I20">
@@ -7444,516 +8731,101 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="52" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="75" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="52"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53">
-        <v>9999</v>
-      </c>
-      <c r="H2" s="52">
-        <v>1</v>
-      </c>
-      <c r="I2" s="75">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53">
-        <v>9999</v>
-      </c>
-      <c r="H3" s="52">
-        <v>1</v>
-      </c>
-      <c r="I3" s="75">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53">
-        <v>9999</v>
-      </c>
-      <c r="H4" s="52">
-        <v>1</v>
-      </c>
-      <c r="I4" s="75">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53">
-        <v>9999</v>
-      </c>
-      <c r="H5" s="52">
-        <v>1</v>
-      </c>
-      <c r="I5" s="75">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53">
-        <v>9999</v>
-      </c>
-      <c r="H6" s="52">
-        <v>1</v>
-      </c>
-      <c r="I6" s="75">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53">
-        <v>9999</v>
-      </c>
-      <c r="H7" s="52">
-        <v>1</v>
-      </c>
-      <c r="I7" s="75">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53">
-        <v>9999</v>
-      </c>
-      <c r="H8" s="52">
-        <v>1</v>
-      </c>
-      <c r="I8" s="75">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53">
-        <v>9999</v>
-      </c>
-      <c r="H12" s="52">
-        <v>1</v>
-      </c>
-      <c r="I12" s="75">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53">
-        <v>9999</v>
-      </c>
-      <c r="H13" s="52">
-        <v>1</v>
-      </c>
-      <c r="I13" s="75">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53">
-        <v>9999</v>
-      </c>
-      <c r="H14" s="52">
-        <v>1</v>
-      </c>
-      <c r="I14" s="75">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="53">
-        <v>9999</v>
-      </c>
-      <c r="G18" s="53">
-        <v>9999</v>
-      </c>
-      <c r="H18" s="52">
-        <v>1</v>
-      </c>
-      <c r="I18" s="75">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="53">
-        <v>9999</v>
-      </c>
-      <c r="G19" s="53">
-        <v>9999</v>
-      </c>
-      <c r="H19" s="52">
-        <v>1</v>
-      </c>
-      <c r="I19" s="75">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="53">
-        <v>9999</v>
-      </c>
-      <c r="G20" s="53">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
-    <Document_x0020_Type0 xmlns="c8997458-7248-47ee-87d9-76abb3405a69">48</Document_x0020_Type0>
-    <Approval_x0020_Required xmlns="36e68baa-8be6-4e50-b400-82d1fc042235">No</Approval_x0020_Required>
-    <Status0 xmlns="aa29e89f-12d7-4dca-b38f-e58359f325cc">26</Status0>
-    <Document_x0020_Owner0 xmlns="aa29e89f-12d7-4dca-b38f-e58359f325cc">26</Document_x0020_Owner0>
+    <Document_x0020_Type0 xmlns="6a3989a2-c5c2-41fc-8f5c-8217df8d25a9">97</Document_x0020_Type0>
+    <Approval_x0020_Required xmlns="6a3989a2-c5c2-41fc-8f5c-8217df8d25a9">No</Approval_x0020_Required>
+    <Document_x0020_Owner xmlns="b157ee4a-2f6e-4380-b1dc-66f3b43e0279">1</Document_x0020_Owner>
+    <TaxCatchAll xmlns="b157ee4a-2f6e-4380-b1dc-66f3b43e0279"/>
+    <Document_x0020_Status xmlns="b157ee4a-2f6e-4380-b1dc-66f3b43e0279">1</Document_x0020_Status>
+    <_dlc_DocId xmlns="b157ee4a-2f6e-4380-b1dc-66f3b43e0279">3144702833684012017</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="b157ee4a-2f6e-4380-b1dc-66f3b43e0279">
+      <Url>https://usc.intranet.teldta.com/sites/LegacyEPR/_layouts/15/DocIdRedir.aspx?ID=3144702833684012017</Url>
+      <Description>3144702833684012017</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF6EBA7CA4791C48B9C24A87BC06EF53" ma:contentTypeVersion="34" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="33efe6195ef1c6a2817a3facdd10dc7b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8997458-7248-47ee-87d9-76abb3405a69" xmlns:ns3="36e68baa-8be6-4e50-b400-82d1fc042235" xmlns:ns4="aa29e89f-12d7-4dca-b38f-e58359f325cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff16c88a3785efb902133d5999800968" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="c8997458-7248-47ee-87d9-76abb3405a69"/>
-    <xsd:import namespace="36e68baa-8be6-4e50-b400-82d1fc042235"/>
-    <xsd:import namespace="aa29e89f-12d7-4dca-b38f-e58359f325cc"/>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071832005AF31E4408B52D72125F9F8F9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f465d3f7928d4626929105399d19c8a3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a3989a2-c5c2-41fc-8f5c-8217df8d25a9" xmlns:ns3="b157ee4a-2f6e-4380-b1dc-66f3b43e0279" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b86a395f4d614ff7baade6981f2b3088" ns2:_="" ns3:_="">
+    <xsd:import namespace="6a3989a2-c5c2-41fc-8f5c-8217df8d25a9"/>
+    <xsd:import namespace="b157ee4a-2f6e-4380-b1dc-66f3b43e0279"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
+                <xsd:element ref="ns2:Approval_x0020_Required"/>
                 <xsd:element ref="ns2:Document_x0020_Type0"/>
-                <xsd:element ref="ns3:Approval_x0020_Required"/>
-                <xsd:element ref="ns4:Document_x0020_Owner0"/>
-                <xsd:element ref="ns4:Status0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocId" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocIdUrl" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocIdPersistId" minOccurs="0"/>
+                <xsd:element ref="ns3:Document_x0020_Owner" minOccurs="0"/>
+                <xsd:element ref="ns3:Document_x0020_Status" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7961,17 +8833,10 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" targetNamespace="c8997458-7248-47ee-87d9-76abb3405a69" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6a3989a2-c5c2-41fc-8f5c-8217df8d25a9" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:element name="Document_x0020_Type0" ma:index="8" ma:displayName="Document Type" ma:list="{c8f58494-cec8-4349-b844-a7cb739c1ad4}" ma:internalName="Document_x0020_Type0" ma:showField="Title">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" targetNamespace="36e68baa-8be6-4e50-b400-82d1fc042235" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:element name="Approval_x0020_Required" ma:index="9" ma:displayName="Approval Required" ma:format="Dropdown" ma:internalName="Approval_x0020_Required">
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Approval_x0020_Required" ma:index="2" ma:displayName="Approval Required" ma:format="Dropdown" ma:internalName="Approval_x0020_Required" ma:readOnly="false">
       <xsd:simpleType>
         <xsd:restriction base="dms:Choice">
           <xsd:enumeration value="Yes"/>
@@ -7979,21 +8844,60 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" targetNamespace="aa29e89f-12d7-4dca-b38f-e58359f325cc" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:element name="Document_x0020_Owner0" ma:index="10" ma:displayName="Document Owner" ma:default="" ma:list="{06F61E99-663B-4C4F-80B5-9F2B495AF47A}" ma:internalName="Document_x0020_Owner0" ma:showField="Document_x0020_Owner" ma:web="{DC11AC78-EC58-4B00-9B03-46746A90D648}">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Lookup"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Status0" ma:index="11" ma:displayName="Status" ma:default="" ma:list="{06F61E99-663B-4C4F-80B5-9F2B495AF47A}" ma:internalName="Status0" ma:readOnly="false" ma:showField="Status" ma:web="{DC11AC78-EC58-4B00-9B03-46746A90D648}">
+    <xsd:element name="Document_x0020_Type0" ma:index="6" ma:displayName="Document Type" ma:list="{6159ce7f-347e-4546-b692-14b837c95156}" ma:internalName="Document_x0020_Type0" ma:readOnly="false" ma:showField="Title">
       <xsd:simpleType>
         <xsd:restriction base="dms:Lookup"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/office/internal/2005/internalDocumentation" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b157ee4a-2f6e-4380-b1dc-66f3b43e0279" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="11" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:description="" ma:hidden="true" ma:list="{5a482c17-0c90-414f-8a9c-ad9b1ae862af}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="b157ee4a-2f6e-4380-b1dc-66f3b43e0279">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocId" ma:index="12" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdUrl" ma:index="13" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdPersistId" ma:index="14" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Document_x0020_Owner" ma:index="15" nillable="true" ma:displayName="Document Owner" ma:list="{ccd43d1b-bc96-4ee1-af49-2b2160702e8e}" ma:internalName="Document_x0020_Owner" ma:readOnly="false" ma:showField="Title" ma:web="b157ee4a-2f6e-4380-b1dc-66f3b43e0279">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Document_x0020_Status" ma:index="16" nillable="true" ma:displayName="Status" ma:list="{71165a99-9a20-423e-bc38-34f303ababd7}" ma:internalName="Document_x0020_Status" ma:readOnly="false" ma:showField="Title" ma:web="b157ee4a-2f6e-4380-b1dc-66f3b43e0279">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Lookup"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
     <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
     <xsd:element name="coreProperties" type="CT_coreProperties"/>
@@ -8002,8 +8906,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type" ma:readOnly="true"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Document Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Document Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -8019,63 +8923,127 @@
         </xsd:element>
         <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
         <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="lastPrinted" minOccurs="0" maxOccurs="1" type="xsd:dateTime"/>
         <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
       </xsd:all>
     </xsd:complexType>
   </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D41803-6C0F-45D1-B208-11D090E7F062}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6640CEE7-A5C1-4D50-8275-F1B3D0AF7BEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="c8997458-7248-47ee-87d9-76abb3405a69"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="aa29e89f-12d7-4dca-b38f-e58359f325cc"/>
-    <ds:schemaRef ds:uri="36e68baa-8be6-4e50-b400-82d1fc042235"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2466379E-A994-4469-AC77-FE13D07FF190}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ABBBC1B-0A97-407A-900B-C88AD5CE1A8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D41803-6C0F-45D1-B208-11D090E7F062}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b157ee4a-2f6e-4380-b1dc-66f3b43e0279"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6a3989a2-c5c2-41fc-8f5c-8217df8d25a9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE398467-4301-4211-B2D4-AB4A875D2544}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c8997458-7248-47ee-87d9-76abb3405a69"/>
-    <ds:schemaRef ds:uri="36e68baa-8be6-4e50-b400-82d1fc042235"/>
-    <ds:schemaRef ds:uri="aa29e89f-12d7-4dca-b38f-e58359f325cc"/>
+    <ds:schemaRef ds:uri="6a3989a2-c5c2-41fc-8f5c-8217df8d25a9"/>
+    <ds:schemaRef ds:uri="b157ee4a-2f6e-4380-b1dc-66f3b43e0279"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ABBBC1B-0A97-407A-900B-C88AD5CE1A8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>